--- a/pedelecCalc.xlsx
+++ b/pedelecCalc.xlsx
@@ -8,27 +8,40 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjwil\Documents\Computer\Arduino\Pedelec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB0D15A-D601-4492-8857-649552EB839F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADA23FC-0FB7-4B01-BAB6-630EB16EB847}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
     <sheet name="velocityMap" sheetId="2" r:id="rId2"/>
     <sheet name="velocityMap (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="coil" sheetId="4" r:id="rId4"/>
+    <sheet name="test" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="average_speed">test!$B$1</definedName>
+    <definedName name="battery_capacity">test!$B$3</definedName>
+    <definedName name="Bmax">coil!$B$9</definedName>
+    <definedName name="coilDiameter">coil!$B$4</definedName>
+    <definedName name="coilLength">coil!$B$5</definedName>
     <definedName name="deltaT" localSheetId="2">'velocityMap (2)'!$B$2:$B$100</definedName>
     <definedName name="deltaT">velocityMap!$B$2:$B$51</definedName>
     <definedName name="deltaTau" localSheetId="2">'velocityMap (2)'!$E$3:$E$100</definedName>
     <definedName name="deltaTau">velocityMap!$E$3:$E$51</definedName>
     <definedName name="deltaTau_" localSheetId="2">'velocityMap (2)'!$G$2:$G$100</definedName>
     <definedName name="deltaTau_">velocityMap!$G$2:$G$51</definedName>
+    <definedName name="estimated_range">test!$B$5</definedName>
+    <definedName name="Imax">coil!$B$6</definedName>
     <definedName name="iPulse">Parameters!$B$6</definedName>
     <definedName name="k_" localSheetId="2">'velocityMap (2)'!$F$3</definedName>
     <definedName name="k_">velocityMap!$F$3</definedName>
     <definedName name="k__" localSheetId="2">'velocityMap (2)'!$H$2</definedName>
     <definedName name="k__">velocityMap!$H$2</definedName>
+    <definedName name="measured_range">test!$B$2</definedName>
+    <definedName name="motor_power">test!$B$4</definedName>
+    <definedName name="mu0">coil!$B$1</definedName>
+    <definedName name="nTurns">coil!$B$3</definedName>
     <definedName name="pulseFreq" localSheetId="2">'velocityMap (2)'!$C$2:$C$100</definedName>
     <definedName name="pulseFreq">velocityMap!$C$2:$C$51</definedName>
     <definedName name="pulseFrequency">Parameters!$B$18</definedName>
@@ -37,6 +50,7 @@
     <definedName name="sensorDiameter">Parameters!$B$1</definedName>
     <definedName name="tPulse">Parameters!$B$5</definedName>
     <definedName name="transitTime">Parameters!$B$17</definedName>
+    <definedName name="ur">coil!$B$2</definedName>
     <definedName name="velocity" localSheetId="2">'velocityMap (2)'!$A$2:$A$51</definedName>
     <definedName name="velocity">velocityMap!$A$2:$A$51</definedName>
     <definedName name="wheelDiameter">Parameters!$B$3</definedName>
@@ -57,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
   <si>
     <t>roadSpeed</t>
   </si>
@@ -141,6 +155,60 @@
   </si>
   <si>
     <t>depends on diverse of B field and hysteresis of reed switch - measure with scope</t>
+  </si>
+  <si>
+    <t>mu0</t>
+  </si>
+  <si>
+    <t>ur</t>
+  </si>
+  <si>
+    <t>nTurns</t>
+  </si>
+  <si>
+    <t>coilDiameter</t>
+  </si>
+  <si>
+    <t>coilLength</t>
+  </si>
+  <si>
+    <t>Imax</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Bmax</t>
+  </si>
+  <si>
+    <t>Lcoil</t>
+  </si>
+  <si>
+    <t>average_speed</t>
+  </si>
+  <si>
+    <t>measured_range</t>
+  </si>
+  <si>
+    <t>estimated_range</t>
+  </si>
+  <si>
+    <t>battery_capacity</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>Wh</t>
+  </si>
+  <si>
+    <t>km/h</t>
+  </si>
+  <si>
+    <t>motor_power</t>
+  </si>
+  <si>
+    <t>W</t>
   </si>
 </sst>
 </file>
@@ -2168,68 +2236,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-828C-4A85-AFF6-2A10BB10DBD8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:yVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="1"/>
-              <c:pt idx="0">
-                <c:v>1</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-828C-4A85-AFF6-2A10BB10DBD8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="4"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:yVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="1"/>
-              <c:pt idx="0">
-                <c:v>1</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-828C-4A85-AFF6-2A10BB10DBD8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3543,12 +3549,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3556,14 +3559,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>deltaTau vs deltaT</a:t>
+              <a:rPr lang="en-GB"/>
+              <a:t>tout vs tin</a:t>
             </a:r>
-            <a:endParaRPr lang="en-GB">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3580,12 +3578,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3603,191 +3598,510 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="12700" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'velocityMap (2)'!$G$9:$G$60</c:f>
+              <c:f>'velocityMap (2)'!$B$12:$B$83</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>1130.9733552923258</c:v>
+                  <c:v>791.68134870462791</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>989.60168588078488</c:v>
+                  <c:v>719.71031700420713</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>879.64594300514204</c:v>
+                  <c:v>659.73445725385659</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>791.68134870462791</c:v>
+                  <c:v>608.9856528497138</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>741.92359839322592</c:v>
+                  <c:v>565.48667764616289</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>700.45880646705757</c:v>
+                  <c:v>527.78756580308527</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>665.37321329876136</c:v>
+                  <c:v>494.80084294039244</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>635.29984772593605</c:v>
+                  <c:v>465.69491100272222</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>609.23626422948723</c:v>
+                  <c:v>439.82297150257102</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>586.43062867009473</c:v>
+                  <c:v>416.67439405506735</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>566.30800905886599</c:v>
+                  <c:v>395.84067435231395</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>548.42123607110705</c:v>
+                  <c:v>376.99111843077515</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>532.41728129258604</c:v>
+                  <c:v>359.85515850210356</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>518.01372199191701</c:v>
+                  <c:v>344.2092820454904</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>504.98193024369266</c:v>
+                  <c:v>329.86722862692829</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>493.13484683621596</c:v>
+                  <c:v>316.67253948185117</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>482.3179445946069</c:v>
+                  <c:v>304.4928264248569</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>472.40245087313184</c:v>
+                  <c:v>293.21531433504737</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>463.28019664937483</c:v>
+                  <c:v>282.74333882308144</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>454.85965428898373</c:v>
+                  <c:v>272.99356851883721</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>447.06285580714007</c:v>
+                  <c:v>263.89378290154264</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>439.82297150257108</c:v>
+                  <c:v>255.38108022729932</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>433.08238956383434</c:v>
+                  <c:v>247.40042147019622</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>426.79117975434667</c:v>
+                  <c:v>239.9034390014024</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>420.90585444869697</c:v>
+                  <c:v>232.84745550136111</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>415.38836197465037</c:v>
+                  <c:v>226.1946710584651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>410.20526298387938</c:v>
+                  <c:v>219.91148575128551</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>405.32705216903599</c:v>
+                  <c:v>213.96793208233186</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>400.72759625789803</c:v>
+                  <c:v>208.33719702753368</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>396.38366567515652</c:v>
+                  <c:v>202.99521761657124</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>392.27454215094167</c:v>
+                  <c:v>197.92033717615698</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>388.38168828589602</c:v>
+                  <c:v>193.09301187917754</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>384.68846795239119</c:v>
+                  <c:v>188.49555921538757</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>381.17990863556156</c:v>
+                  <c:v>184.11194155921578</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>377.84249855369922</c:v>
+                  <c:v>179.92757925105178</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>374.66401276144938</c:v>
+                  <c:v>175.92918860102841</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>371.63336351767629</c:v>
+                  <c:v>172.1046410227452</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>368.74047105771109</c:v>
+                  <c:v>168.44284014992081</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>365.97615159596648</c:v>
+                  <c:v>164.93361431346415</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>363.33201993690648</c:v>
+                  <c:v>161.56762218461793</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>360.8004045186575</c:v>
+                  <c:v>158.33626974092559</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>358.374273076169</c:v>
+                  <c:v>155.23163700090743</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>356.04716740684319</c:v>
+                  <c:v>152.24641321242845</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>353.81314596429041</c:v>
+                  <c:v>149.37383937823168</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>351.66673320575939</c:v>
+                  <c:v>146.60765716752368</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>349.60287478409492</c:v>
+                  <c:v>143.94206340084145</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>347.6168978123045</c:v>
+                  <c:v>141.37166941154072</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>345.70447554317309</c:v>
+                  <c:v>138.89146468502244</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>343.86159590201004</c:v>
+                  <c:v>136.4967842594186</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>342.08453339088862</c:v>
+                  <c:v>134.18327944146236</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>340.36982395033272</c:v>
+                  <c:v>131.94689145077132</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>338.71424242152023</c:v>
+                  <c:v>129.78382765649636</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>127.69054011364966</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>125.66370614359172</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>123.70021073509811</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>121.79713056994277</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>119.9517195007012</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>118.16139532904893</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>116.42372775068056</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>114.7364273484968</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>113.09733552923255</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>111.50441531051096</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>109.95574287564276</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>108.44949982255176</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>106.98396604116593</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>105.55751316061705</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>104.16859851376684</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>102.81575957202959</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>101.49760880828562</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>100.21282894995289</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>98.960168588078488</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.9168134870462783</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'velocityMap (2)'!$B$9:$B$60</c:f>
+              <c:f>'velocityMap (2)'!$B$12:$B$83</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>791.68134870462791</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>719.71031700420713</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>659.73445725385659</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>608.9856528497138</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>565.48667764616289</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>527.78756580308527</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>494.80084294039244</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>465.69491100272222</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>439.82297150257102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>416.67439405506735</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>395.84067435231395</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>376.99111843077515</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>359.85515850210356</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>344.2092820454904</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>329.86722862692829</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>316.67253948185117</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>304.4928264248569</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>293.21531433504737</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>282.74333882308144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>272.99356851883721</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>263.89378290154264</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>255.38108022729932</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>247.40042147019622</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>239.9034390014024</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>232.84745550136111</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>226.1946710584651</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>219.91148575128551</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>213.96793208233186</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>208.33719702753368</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>202.99521761657124</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>197.92033717615698</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>193.09301187917754</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>188.49555921538757</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>184.11194155921578</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>179.92757925105178</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>175.92918860102841</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>172.1046410227452</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>168.44284014992081</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>164.93361431346415</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>161.56762218461793</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>158.33626974092559</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>155.23163700090743</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>152.24641321242845</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>149.37383937823168</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>146.60765716752368</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>143.94206340084145</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>141.37166941154072</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>138.89146468502244</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>136.4967842594186</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>134.18327944146236</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>131.94689145077132</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>129.78382765649636</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>127.69054011364966</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>125.66370614359172</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>123.70021073509811</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>121.79713056994277</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>119.9517195007012</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>118.16139532904893</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>116.42372775068056</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>114.7364273484968</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>113.09733552923255</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>111.50441531051096</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>109.95574287564276</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>108.44949982255176</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>106.98396604116593</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>105.55751316061705</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>104.16859851376684</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>102.81575957202959</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>101.49760880828562</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>100.21282894995289</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>98.960168588078488</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.9168134870462783</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DAFF-4E89-9A13-E48C3C05B357}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'velocityMap (2)'!$B$9:$B$83</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>1130.9733552923258</c:v>
                 </c:pt>
@@ -3943,6 +4257,309 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>136.4967842594186</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>134.18327944146236</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>131.94689145077132</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>129.78382765649636</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>127.69054011364966</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>125.66370614359172</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>123.70021073509811</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>121.79713056994277</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>119.9517195007012</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>118.16139532904893</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>116.42372775068056</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>114.7364273484968</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>113.09733552923255</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>111.50441531051096</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>109.95574287564276</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>108.44949982255176</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>106.98396604116593</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>105.55751316061705</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>104.16859851376684</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>102.81575957202959</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>101.49760880828562</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>100.21282894995289</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>98.960168588078488</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.9168134870462783</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'velocityMap (2)'!$G$9:$G$83</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="75"/>
+                <c:pt idx="0">
+                  <c:v>1130.9733552923258</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>989.60168588078488</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>879.64594300514204</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>791.68134870462791</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>741.92359839322592</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>700.45880646705757</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>665.37321329876136</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>635.29984772593605</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>609.23626422948723</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>586.43062867009473</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>566.30800905886599</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>548.42123607110705</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>532.41728129258604</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>518.01372199191701</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>504.98193024369266</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>493.13484683621596</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>482.3179445946069</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>472.40245087313184</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>463.28019664937483</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>454.85965428898373</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>447.06285580714007</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>439.82297150257108</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>433.08238956383434</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>426.79117975434667</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>420.90585444869697</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>415.38836197465037</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>410.20526298387938</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>405.32705216903599</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>400.72759625789803</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>396.38366567515652</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>392.27454215094167</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>388.38168828589602</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>384.68846795239119</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>381.17990863556156</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>377.84249855369922</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>374.66401276144938</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>371.63336351767629</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>368.74047105771109</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>365.97615159596648</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>363.33201993690648</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>360.8004045186575</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>358.374273076169</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>356.04716740684319</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>353.81314596429041</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>351.66673320575939</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>349.60287478409492</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>347.6168978123045</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>345.70447554317309</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>343.86159590201004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>342.08453339088862</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>340.36982395033272</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>338.71424242152023</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>337.11478230046401</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>335.56863751677639</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>334.07318600468506</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>332.62597486395151</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>331.22470693403494</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>329.86722862692829</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>329.86722862692829</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>329.86722862692829</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>329.86722862692829</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>329.86722862692829</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>329.86722862692829</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>329.86722862692829</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>329.86722862692829</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>329.86722862692829</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>329.86722862692829</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>329.86722862692829</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>329.86722862692829</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>329.86722862692829</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>329.86722862692829</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>329.86722862692829</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>329.86722862692829</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>329.86722862692829</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>329.86722862692829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3972,20 +4589,82 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>tin (msec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln>
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3996,10 +4675,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4024,7 +4700,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx2">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -4034,6 +4710,55 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>tout (msec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4041,7 +4766,12 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -4052,10 +4782,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4094,7 +4821,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -4118,6 +4845,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -6942,33 +7670,27 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -6983,7 +7705,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -6991,7 +7713,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -6999,17 +7721,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -7018,9 +7737,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -7043,45 +7761,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -7093,21 +7801,19 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
@@ -7116,10 +7822,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -7135,21 +7841,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -7183,17 +7884,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -7202,14 +7903,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7221,26 +7921,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -7254,96 +7948,99 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -7351,17 +8048,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -7370,12 +8067,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -7384,14 +8078,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -7400,10 +8093,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -7412,7 +8102,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -7433,11 +8123,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -7445,14 +8142,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -7655,13 +8346,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>273049</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>117475</xdr:rowOff>
+      <xdr:rowOff>117473</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7689,6 +8380,331 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.68034</cdr:x>
+      <cdr:y>0.41778</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.90961</cdr:x>
+      <cdr:y>0.45773</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5710FF37-52C1-420E-B462-12C002922C32}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2503522" y="1387477"/>
+          <a:ext cx="843693" cy="132665"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr>
+            <a:spcBef>
+              <a:spcPts val="800"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="300"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="900" dirty="0"/>
+            <a:t>Speed = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="900" baseline="0" dirty="0"/>
+            <a:t>10km</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="900" dirty="0"/>
+            <a:t>/h</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.49915</cdr:x>
+      <cdr:y>0.63289</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.72842</cdr:x>
+      <cdr:y>0.67283</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86B0A957-CE1E-4112-9B4A-5F89021220E5}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1836772" y="2101852"/>
+          <a:ext cx="843693" cy="132665"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr>
+            <a:spcBef>
+              <a:spcPts val="800"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="300"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="900" baseline="0" dirty="0"/>
+            <a:t>Speed = 24km/h</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.67386</cdr:x>
+      <cdr:y>0.39484</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.83434</cdr:x>
+      <cdr:y>0.39484</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FBAD1C9-0FA3-45E9-ABE7-05A022C410F0}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+          <a:off x="2479676" y="1311277"/>
+          <a:ext cx="590550" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.32528</cdr:x>
+      <cdr:y>0.65105</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.48576</cdr:x>
+      <cdr:y>0.65105</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C257E18A-0FD1-46BE-A6AF-2EC3B6D5C97A}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+          <a:off x="1196976" y="2162177"/>
+          <a:ext cx="590550" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.27913</cdr:x>
+      <cdr:y>0.77055</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.4099</cdr:x>
+      <cdr:y>0.82505</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CCED63A-5456-4E74-A497-343DEA801B5C}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1027147" y="2559052"/>
+          <a:ext cx="481222" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr>
+            <a:spcBef>
+              <a:spcPts val="800"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="300"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="900" dirty="0"/>
+            <a:t>regulated</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.2403</cdr:x>
+      <cdr:y>0.52677</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.40596</cdr:x>
+      <cdr:y>0.58413</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="13" name="TextBox 12">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49BCDAA5-8B39-41FC-B785-F5F6907FAE4C}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="884272" y="1749427"/>
+          <a:ext cx="609590" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr>
+            <a:spcBef>
+              <a:spcPts val="800"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="300"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="900" dirty="0"/>
+            <a:t>deregulated</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8169,7 +9185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A46168A-B882-BE4E-848A-F4A51B716D3F}">
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+    <sheetView topLeftCell="F7" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -10422,10 +11438,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09FE57E8-16EA-43F6-8140-E58B1A4CDDC5}">
-  <dimension ref="A1:T82"/>
+  <dimension ref="A1:T83"/>
   <sheetViews>
-    <sheetView topLeftCell="F21" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="F23" workbookViewId="0">
+      <selection activeCell="L65" sqref="L65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10534,26 +11550,26 @@
         <v>1.2126090902239645E-2</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G34" si="4">IF(B3&gt;B$12,B3,B$12-(B$12-B3)*k__)</f>
+        <f>IF(B3&gt;B$66,IF(B3&gt;B$12,B3,B$12-(B$12-B3)*k__),B$26)</f>
         <v>7916.8134870462791</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I51" si="5">3.6/E3*PI()*wheelDiameter</f>
+        <f t="shared" ref="I3:I51" si="4">3.6/E3*PI()*wheelDiameter</f>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2">
-        <f t="shared" ref="K3:K51" si="6">3.6/G3*PI()*wheelDiameter</f>
+        <f t="shared" ref="K3:K51" si="5">3.6/G3*PI()*wheelDiameter</f>
         <v>1</v>
       </c>
       <c r="R3" s="2">
-        <f t="shared" ref="R3:R34" si="7">tPulse/1000/3600*iPulse*1000*3600*1000/deltaTau</f>
+        <f t="shared" ref="R3:R34" si="6">tPulse/1000/3600*iPulse*1000*3600*1000/deltaTau</f>
         <v>1.0526120574860805E-2</v>
       </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2">
-        <f t="shared" ref="T3:T34" si="8">tPulse/1000/3600*iPulse*1000*3600*1000/deltaTau_</f>
+        <f t="shared" ref="T3:T34" si="7">tPulse/1000/3600*iPulse*1000*3600*1000/deltaTau_</f>
         <v>1.0105075751866373</v>
       </c>
     </row>
@@ -10578,26 +11594,26 @@
         <v>190003.52368911071</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="4"/>
+        <f>IF(B4&gt;B$66,IF(B4&gt;B$12,B4,B$12-(B$12-B4)*k__),B$26)</f>
         <v>3958.4067435231395</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="R4" s="2">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="R4" s="2">
-        <f t="shared" si="7"/>
         <v>4.2104482299443219E-2</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.0210151503732745</v>
       </c>
     </row>
@@ -10622,26 +11638,26 @@
         <v>84446.010528493644</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="4"/>
+        <f>IF(B5&gt;B$66,IF(B5&gt;B$12,B5,B$12-(B$12-B5)*k__),B$26)</f>
         <v>2638.9378290154264</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9.3749999999999986E-2</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2">
+        <f t="shared" si="5"/>
+        <v>2.9999999999999996</v>
+      </c>
+      <c r="R5" s="2">
         <f t="shared" si="6"/>
-        <v>2.9999999999999996</v>
-      </c>
-      <c r="R5" s="2">
-        <f t="shared" si="7"/>
         <v>9.4735085173747249E-2</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.031522725559912</v>
       </c>
     </row>
@@ -10666,26 +11682,26 @@
         <v>47500.880922277676</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="4"/>
+        <f>IF(B6&gt;B$66,IF(B6&gt;B$12,B6,B$12-(B$12-B6)*k__),B$26)</f>
         <v>1979.2033717615698</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="R6" s="2">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="R6" s="2">
-        <f t="shared" si="7"/>
         <v>0.16841792919777288</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4.042030300746549</v>
       </c>
     </row>
@@ -10710,26 +11726,26 @@
         <v>30400.563790257715</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="4"/>
+        <f>IF(B7&gt;B$66,IF(B7&gt;B$12,B7,B$12-(B$12-B7)*k__),B$26)</f>
         <v>1583.3626974092558</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.26041666666666663</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2">
+        <f t="shared" si="5"/>
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="R7" s="2">
         <f t="shared" si="6"/>
-        <v>5.0000000000000009</v>
-      </c>
-      <c r="R7" s="2">
-        <f t="shared" si="7"/>
         <v>0.26315301437152011</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5.0525378759331865</v>
       </c>
     </row>
@@ -10754,26 +11770,26 @@
         <v>21111.502632123411</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="4"/>
+        <f>IF(B8&gt;B$66,IF(B8&gt;B$12,B8,B$12-(B$12-B8)*k__),B$26)</f>
         <v>1319.4689145077132</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.37499999999999994</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2">
+        <f t="shared" si="5"/>
+        <v>5.9999999999999991</v>
+      </c>
+      <c r="R8" s="2">
         <f t="shared" si="6"/>
-        <v>5.9999999999999991</v>
-      </c>
-      <c r="R8" s="2">
-        <f t="shared" si="7"/>
         <v>0.378940340694989</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>6.063045451119824</v>
       </c>
     </row>
@@ -10798,26 +11814,26 @@
         <v>15510.49172972333</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="4"/>
+        <f>IF(B9&gt;B$66,IF(B9&gt;B$12,B9,B$12-(B$12-B9)*k__),B$26)</f>
         <v>1130.9733552923258</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.51041666666666641</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2">
+        <f t="shared" si="5"/>
+        <v>6.9999999999999991</v>
+      </c>
+      <c r="R9" s="2">
         <f t="shared" si="6"/>
-        <v>6.9999999999999991</v>
-      </c>
-      <c r="R9" s="2">
-        <f t="shared" si="7"/>
         <v>0.5157799081681792</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>7.0735530263064597</v>
       </c>
     </row>
@@ -10842,26 +11858,26 @@
         <v>11875.220230569419</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="4"/>
+        <f>IF(B10&gt;B$66,IF(B10&gt;B$12,B10,B$12-(B$12-B10)*k__),B$26)</f>
         <v>989.60168588078488</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="R10" s="2">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="R10" s="2">
-        <f t="shared" si="7"/>
         <v>0.6736717167910915</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>8.084060601493098</v>
       </c>
     </row>
@@ -10886,26 +11902,26 @@
         <v>9382.8900587215139</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="4"/>
+        <f>IF(B11&gt;B$66,IF(B11&gt;B$12,B11,B$12-(B$12-B11)*k__),B$26)</f>
         <v>879.64594300514204</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.84375000000000011</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2">
+        <f t="shared" si="5"/>
+        <v>9.0000000000000018</v>
+      </c>
+      <c r="R11" s="2">
         <f t="shared" si="6"/>
-        <v>9.0000000000000018</v>
-      </c>
-      <c r="R11" s="2">
-        <f t="shared" si="7"/>
         <v>0.8526157665637254</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>9.0945681766797364</v>
       </c>
     </row>
@@ -10930,26 +11946,26 @@
         <v>7600.1409475644286</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="4"/>
+        <f>IF(B12&gt;B$66,IF(B12&gt;B$12,B12,B$12-(B$12-B12)*k__),B$26)</f>
         <v>791.68134870462791</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.0416666666666665</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2">
+        <f t="shared" si="5"/>
+        <v>10.000000000000002</v>
+      </c>
+      <c r="R12" s="2">
         <f t="shared" si="6"/>
-        <v>10.000000000000002</v>
-      </c>
-      <c r="R12" s="2">
-        <f t="shared" si="7"/>
         <v>1.0526120574860804</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10.105075751866373</v>
       </c>
     </row>
@@ -10974,26 +11990,26 @@
         <v>6281.1082211276253</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="4"/>
+        <f>IF(B13&gt;B$66,IF(B13&gt;B$12,B13,B$12-(B$12-B13)*k__),B$26)</f>
         <v>741.92359839322592</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.2604166666666667</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2">
+        <f t="shared" si="5"/>
+        <v>10.670658682634732</v>
+      </c>
+      <c r="R13" s="2">
         <f t="shared" si="6"/>
-        <v>10.670658682634732</v>
-      </c>
-      <c r="R13" s="2">
-        <f t="shared" si="7"/>
         <v>1.2736605895581576</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10.78278143103346</v>
       </c>
     </row>
@@ -11018,26 +12034,26 @@
         <v>5277.8756580308527</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="4"/>
+        <f>IF(B14&gt;B$66,IF(B14&gt;B$12,B14,B$12-(B$12-B14)*k__),B$26)</f>
         <v>700.45880646705757</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.4999999999999998</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2">
+        <f t="shared" si="5"/>
+        <v>11.302325581395349</v>
+      </c>
+      <c r="R14" s="2">
         <f t="shared" si="6"/>
-        <v>11.302325581395349</v>
-      </c>
-      <c r="R14" s="2">
-        <f t="shared" si="7"/>
         <v>1.515761362779956</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>11.421085617225716</v>
       </c>
     </row>
@@ -11062,26 +12078,26 @@
         <v>4497.1248210440408</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="4"/>
+        <f>IF(B15&gt;B$66,IF(B15&gt;B$12,B15,B$12-(B$12-B15)*k__),B$26)</f>
         <v>665.37321329876136</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.7604166666666665</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2">
+        <f t="shared" si="5"/>
+        <v>11.898305084745763</v>
+      </c>
+      <c r="R15" s="2">
         <f t="shared" si="6"/>
-        <v>11.898305084745763</v>
-      </c>
-      <c r="R15" s="2">
-        <f t="shared" si="7"/>
         <v>1.7789143771514757</v>
       </c>
       <c r="S15" s="2"/>
       <c r="T15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>12.023327420017278</v>
       </c>
     </row>
@@ -11106,26 +12122,26 @@
         <v>3877.6229324308324</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="4"/>
+        <f>IF(B16&gt;B$66,IF(B16&gt;B$12,B16,B$12-(B$12-B16)*k__),B$26)</f>
         <v>635.29984772593605</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.0416666666666656</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2">
+        <f t="shared" si="5"/>
+        <v>12.46153846153846</v>
+      </c>
+      <c r="R16" s="2">
         <f t="shared" si="6"/>
-        <v>12.46153846153846</v>
-      </c>
-      <c r="R16" s="2">
-        <f t="shared" si="7"/>
         <v>2.0631196326727168</v>
       </c>
       <c r="S16" s="2"/>
       <c r="T16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>12.592479013864248</v>
       </c>
     </row>
@@ -11150,26 +12166,26 @@
         <v>3377.8404211397456</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="4"/>
+        <f>IF(B17&gt;B$66,IF(B17&gt;B$12,B17,B$12-(B$12-B17)*k__),B$26)</f>
         <v>609.23626422948723</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.34375</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2">
+        <f t="shared" si="5"/>
+        <v>12.994652406417114</v>
+      </c>
+      <c r="R17" s="2">
         <f t="shared" si="6"/>
-        <v>12.994652406417114</v>
-      </c>
-      <c r="R17" s="2">
-        <f t="shared" si="7"/>
         <v>2.3683771293436813</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>13.131194693601758</v>
       </c>
     </row>
@@ -11194,26 +12210,26 @@
         <v>2968.8050576423548</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="4"/>
+        <f>IF(B18&gt;B$66,IF(B18&gt;B$12,B18,B$12-(B$12-B18)*k__),B$26)</f>
         <v>586.43062867009473</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2">
+        <f t="shared" si="5"/>
+        <v>13.500000000000002</v>
+      </c>
+      <c r="R18" s="2">
         <f t="shared" si="6"/>
-        <v>13.500000000000002</v>
-      </c>
-      <c r="R18" s="2">
-        <f t="shared" si="7"/>
         <v>2.694686867164366</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>13.641852265019603</v>
       </c>
     </row>
@@ -11238,26 +12254,26 @@
         <v>2629.8065562506663</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="4"/>
+        <f>IF(B19&gt;B$66,IF(B19&gt;B$12,B19,B$12-(B$12-B19)*k__),B$26)</f>
         <v>566.30800905886599</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.010416666666667</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2">
+        <f t="shared" si="5"/>
+        <v>13.979695431472081</v>
+      </c>
+      <c r="R19" s="2">
         <f t="shared" si="6"/>
-        <v>13.979695431472081</v>
-      </c>
-      <c r="R19" s="2">
-        <f t="shared" si="7"/>
         <v>3.0420488461347737</v>
       </c>
       <c r="S19" s="2"/>
       <c r="T19" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>14.126588132304564</v>
       </c>
     </row>
@@ -11282,26 +12298,26 @@
         <v>2345.7225146803785</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="4"/>
+        <f>IF(B20&gt;B$66,IF(B20&gt;B$12,B20,B$12-(B$12-B20)*k__),B$26)</f>
         <v>548.42123607110705</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.3750000000000004</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2">
+        <f t="shared" si="5"/>
+        <v>14.435643564356438</v>
+      </c>
+      <c r="R20" s="2">
         <f t="shared" si="6"/>
-        <v>14.435643564356438</v>
-      </c>
-      <c r="R20" s="2">
-        <f t="shared" si="7"/>
         <v>3.4104630662549016</v>
       </c>
       <c r="S20" s="2"/>
       <c r="T20" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>14.587327174476409</v>
       </c>
     </row>
@@ -11326,26 +12342,26 @@
         <v>2105.3022015413931</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="4"/>
+        <f>IF(B21&gt;B$66,IF(B21&gt;B$12,B21,B$12-(B$12-B21)*k__),B$26)</f>
         <v>532.41728129258604</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.7604166666666656</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2">
+        <f t="shared" si="5"/>
+        <v>14.869565217391305</v>
+      </c>
+      <c r="R21" s="2">
         <f t="shared" si="6"/>
-        <v>14.869565217391305</v>
-      </c>
-      <c r="R21" s="2">
-        <f t="shared" si="7"/>
         <v>3.7999295275247502</v>
       </c>
       <c r="S21" s="2"/>
       <c r="T21" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>15.025808291905649</v>
       </c>
     </row>
@@ -11370,26 +12386,26 @@
         <v>1900.0352368911072</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="4"/>
+        <f>IF(B22&gt;B$66,IF(B22&gt;B$12,B22,B$12-(B$12-B22)*k__),B$26)</f>
         <v>518.01372199191701</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.1666666666666661</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2">
+        <f t="shared" si="5"/>
+        <v>15.283018867924529</v>
+      </c>
+      <c r="R22" s="2">
         <f t="shared" si="6"/>
-        <v>15.283018867924529</v>
-      </c>
-      <c r="R22" s="2">
-        <f t="shared" si="7"/>
         <v>4.2104482299443218</v>
       </c>
       <c r="S22" s="2"/>
       <c r="T22" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>15.443606337758041</v>
       </c>
     </row>
@@ -11414,26 +12430,26 @@
         <v>1723.3879699692575</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="4"/>
+        <f>IF(B23&gt;B$66,IF(B23&gt;B$12,B23,B$12-(B$12-B23)*k__),B$26)</f>
         <v>504.98193024369266</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.5937500000000018</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2">
+        <f t="shared" si="5"/>
+        <v>15.67741935483871</v>
+      </c>
+      <c r="R23" s="2">
         <f t="shared" si="6"/>
-        <v>15.67741935483871</v>
-      </c>
-      <c r="R23" s="2">
-        <f t="shared" si="7"/>
         <v>4.6420191735136163</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>15.842151017442122</v>
       </c>
     </row>
@@ -11458,26 +12474,26 @@
         <v>1570.2770552819063</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="4"/>
+        <f>IF(B24&gt;B$66,IF(B24&gt;B$12,B24,B$12-(B$12-B24)*k__),B$26)</f>
         <v>493.13484683621596</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.041666666666667</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2">
+        <f t="shared" si="5"/>
+        <v>16.054054054054056</v>
+      </c>
+      <c r="R24" s="2">
         <f t="shared" si="6"/>
-        <v>16.054054054054056</v>
-      </c>
-      <c r="R24" s="2">
-        <f t="shared" si="7"/>
         <v>5.0946423582326306</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>16.222743234077367</v>
       </c>
     </row>
@@ -11502,26 +12518,26 @@
         <v>1436.6996120159599</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="4"/>
+        <f>IF(B25&gt;B$66,IF(B25&gt;B$12,B25,B$12-(B$12-B25)*k__),B$26)</f>
         <v>482.3179445946069</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.5104166666666652</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2">
+        <f t="shared" si="5"/>
+        <v>16.41409691629956</v>
+      </c>
+      <c r="R25" s="2">
         <f t="shared" si="6"/>
-        <v>16.41409691629956</v>
-      </c>
-      <c r="R25" s="2">
-        <f t="shared" si="7"/>
         <v>5.5683177841013656</v>
       </c>
       <c r="S25" s="2"/>
       <c r="T25" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>16.58656927376833</v>
       </c>
     </row>
@@ -11546,26 +12562,26 @@
         <v>1319.4689145077132</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="4"/>
+        <f>IF(B26&gt;B$66,IF(B26&gt;B$12,B26,B$12-(B$12-B26)*k__),B$26)</f>
         <v>472.40245087313184</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.9999999999999991</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2">
+        <f t="shared" si="5"/>
+        <v>16.758620689655174</v>
+      </c>
+      <c r="R26" s="2">
         <f t="shared" si="6"/>
-        <v>16.758620689655174</v>
-      </c>
-      <c r="R26" s="2">
-        <f t="shared" si="7"/>
         <v>6.063045451119824</v>
       </c>
       <c r="S26" s="2"/>
       <c r="T26" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>16.934713156576059</v>
       </c>
     </row>
@@ -11590,26 +12606,26 @@
         <v>1216.0225516103087</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="4"/>
+        <f>IF(B27&gt;B$66,IF(B27&gt;B$12,B27,B$12-(B$12-B27)*k__),B$26)</f>
         <v>463.28019664937483</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.5104166666666652</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2">
+        <f t="shared" si="5"/>
+        <v>17.088607594936708</v>
+      </c>
+      <c r="R27" s="2">
         <f t="shared" si="6"/>
-        <v>17.088607594936708</v>
-      </c>
-      <c r="R27" s="2">
-        <f t="shared" si="7"/>
         <v>6.5788253592880022</v>
       </c>
       <c r="S27" s="2"/>
       <c r="T27" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>17.268167424075447</v>
       </c>
     </row>
@@ -11634,26 +12650,26 @@
         <v>1124.2812052610102</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="4"/>
+        <f>IF(B28&gt;B$66,IF(B28&gt;B$12,B28,B$12-(B$12-B28)*k__),B$26)</f>
         <v>454.85965428898373</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.0416666666666661</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2">
+        <f t="shared" si="5"/>
+        <v>17.404958677685951</v>
+      </c>
+      <c r="R28" s="2">
         <f t="shared" si="6"/>
-        <v>17.404958677685951</v>
-      </c>
-      <c r="R28" s="2">
-        <f t="shared" si="7"/>
         <v>7.1156575086059028</v>
       </c>
       <c r="S28" s="2"/>
       <c r="T28" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>17.587842589612052</v>
       </c>
     </row>
@@ -11678,26 +12694,26 @@
         <v>1042.5433398579462</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="4"/>
+        <f>IF(B29&gt;B$66,IF(B29&gt;B$12,B29,B$12-(B$12-B29)*k__),B$26)</f>
         <v>447.06285580714007</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.59375</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2">
+        <f t="shared" si="5"/>
+        <v>17.708502024291498</v>
+      </c>
+      <c r="R29" s="2">
         <f t="shared" si="6"/>
-        <v>17.708502024291498</v>
-      </c>
-      <c r="R29" s="2">
-        <f t="shared" si="7"/>
         <v>7.6735418990735269</v>
       </c>
       <c r="S29" s="2"/>
       <c r="T29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>17.894575440754462</v>
       </c>
     </row>
@@ -11722,26 +12738,26 @@
         <v>969.4057331077081</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" si="4"/>
+        <f>IF(B30&gt;B$66,IF(B30&gt;B$12,B30,B$12-(B$12-B30)*k__),B$26)</f>
         <v>439.82297150257108</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.1666666666666625</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2">
+        <f t="shared" si="5"/>
+        <v>17.999999999999996</v>
+      </c>
+      <c r="R30" s="2">
         <f t="shared" si="6"/>
-        <v>17.999999999999996</v>
-      </c>
-      <c r="R30" s="2">
-        <f t="shared" si="7"/>
         <v>8.2524785306908672</v>
       </c>
       <c r="S30" s="2"/>
       <c r="T30" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>18.189136353359469</v>
       </c>
     </row>
@@ -11766,26 +12782,26 @@
         <v>903.70284751063355</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" si="4"/>
+        <f>IF(B31&gt;B$66,IF(B31&gt;B$12,B31,B$12-(B$12-B31)*k__),B$26)</f>
         <v>433.08238956383434</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.7604166666666661</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2">
+        <f t="shared" si="5"/>
+        <v>18.280155642023345</v>
+      </c>
+      <c r="R31" s="2">
         <f t="shared" si="6"/>
-        <v>18.280155642023345</v>
-      </c>
-      <c r="R31" s="2">
-        <f t="shared" si="7"/>
         <v>8.8524674034579363</v>
       </c>
       <c r="S31" s="2"/>
       <c r="T31" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>18.472235751855337</v>
       </c>
     </row>
@@ -11810,26 +12826,26 @@
         <v>844.46010528493639</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="4"/>
+        <f>IF(B32&gt;B$66,IF(B32&gt;B$12,B32,B$12-(B$12-B32)*k__),B$26)</f>
         <v>426.79117975434667</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9.375</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2">
+        <f t="shared" si="5"/>
+        <v>18.549618320610691</v>
+      </c>
+      <c r="R32" s="2">
         <f t="shared" si="6"/>
-        <v>18.549618320610691</v>
-      </c>
-      <c r="R32" s="2">
-        <f t="shared" si="7"/>
         <v>9.4735085173747251</v>
       </c>
       <c r="S32" s="2"/>
       <c r="T32" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>18.74452982979793</v>
       </c>
     </row>
@@ -11854,26 +12870,26 @@
         <v>790.85753876841079</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" si="4"/>
+        <f>IF(B33&gt;B$66,IF(B33&gt;B$12,B33,B$12-(B$12-B33)*k__),B$26)</f>
         <v>420.90585444869697</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10.010416666666668</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2">
+        <f t="shared" si="5"/>
+        <v>18.808988764044948</v>
+      </c>
+      <c r="R33" s="2">
         <f t="shared" si="6"/>
-        <v>18.808988764044948</v>
-      </c>
-      <c r="R33" s="2">
-        <f t="shared" si="7"/>
         <v>10.115601872441234</v>
       </c>
       <c r="S33" s="2"/>
       <c r="T33" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>19.006625627667766</v>
       </c>
     </row>
@@ -11898,26 +12914,26 @@
         <v>742.20126441058869</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="4"/>
+        <f>IF(B34&gt;B$66,IF(B34&gt;B$12,B34,B$12-(B$12-B34)*k__),B$26)</f>
         <v>415.38836197465037</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10.666666666666666</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2">
+        <f t="shared" si="5"/>
+        <v>19.058823529411768</v>
+      </c>
+      <c r="R34" s="2">
         <f t="shared" si="6"/>
-        <v>19.058823529411768</v>
-      </c>
-      <c r="R34" s="2">
-        <f t="shared" si="7"/>
         <v>10.778747468657464</v>
       </c>
       <c r="S34" s="2"/>
       <c r="T34" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>19.259085550615914</v>
       </c>
     </row>
@@ -11930,38 +12946,38 @@
         <v>239.9034390014024</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" ref="C35:C82" si="9">1000/deltaT</f>
+        <f t="shared" ref="C35:C83" si="8">1000/deltaT</f>
         <v>4.1683437476448777</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" ref="D35:D82" si="10">sensorDiameter/(pulseFreq*2*PI()*radiusSensor)*1000</f>
+        <f t="shared" ref="D35:D83" si="9">sensorDiameter/(pulseFreq*2*PI()*radiusSensor)*1000</f>
         <v>1.8701298701298703</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" ref="E35:E51" si="11">k_*B35^2</f>
+        <f t="shared" ref="E35:E51" si="10">k_*B35^2</f>
         <v>697.90091345862515</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" ref="G35:G51" si="12">IF(B35&gt;B$12,B35,B$12-(B$12-B35)*k__)</f>
+        <f>IF(B35&gt;B$66,IF(B35&gt;B$12,B35,B$12-(B$12-B35)*k__),B$26)</f>
         <v>410.20526298387938</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11.34375</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>19.299638989169676</v>
       </c>
       <c r="R35" s="2">
-        <f t="shared" ref="R35:R51" si="13">tPulse/1000/3600*iPulse*1000*3600*1000/deltaTau</f>
+        <f t="shared" ref="R35:R51" si="11">tPulse/1000/3600*iPulse*1000*3600*1000/deltaTau</f>
         <v>11.462945306023416</v>
       </c>
       <c r="S35" s="2"/>
       <c r="T35" s="2">
-        <f t="shared" ref="T35:T51" si="14">tPulse/1000/3600*iPulse*1000*3600*1000/deltaTau_</f>
+        <f t="shared" ref="T35:T51" si="12">tPulse/1000/3600*iPulse*1000*3600*1000/deltaTau_</f>
         <v>19.502431396923331</v>
       </c>
     </row>
@@ -11974,38 +12990,38 @@
         <v>232.84745550136111</v>
       </c>
       <c r="C36" s="1">
+        <f t="shared" si="8"/>
+        <v>4.2946571945432082</v>
+      </c>
+      <c r="D36" s="2">
         <f t="shared" si="9"/>
-        <v>4.2946571945432082</v>
-      </c>
-      <c r="D36" s="2">
+        <v>1.8151260504201681</v>
+      </c>
+      <c r="E36" s="2">
         <f t="shared" si="10"/>
-        <v>1.8151260504201681</v>
-      </c>
-      <c r="E36" s="2">
-        <f t="shared" si="11"/>
         <v>657.45163906266657</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="12"/>
+        <f>IF(B36&gt;B$66,IF(B36&gt;B$12,B36,B$12-(B$12-B36)*k__),B$26)</f>
         <v>405.32705216903599</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>12.041666666666668</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>19.531914893617024</v>
       </c>
       <c r="R36" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>12.168195384539095</v>
       </c>
       <c r="S36" s="2"/>
       <c r="T36" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>19.737147957900707</v>
       </c>
     </row>
@@ -12018,38 +13034,38 @@
         <v>226.1946710584651</v>
       </c>
       <c r="C37" s="1">
+        <f t="shared" si="8"/>
+        <v>4.4209706414415368</v>
+      </c>
+      <c r="D37" s="2">
         <f t="shared" si="9"/>
-        <v>4.4209706414415368</v>
-      </c>
-      <c r="D37" s="2">
+        <v>1.7632653061224495</v>
+      </c>
+      <c r="E37" s="2">
         <f t="shared" si="10"/>
-        <v>1.7632653061224495</v>
-      </c>
-      <c r="E37" s="2">
-        <f t="shared" si="11"/>
         <v>620.41966918893286</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="12"/>
+        <f>IF(B37&gt;B$66,IF(B37&gt;B$12,B37,B$12-(B$12-B37)*k__),B$26)</f>
         <v>400.72759625789803</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>12.760416666666668</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>19.756097560975611</v>
       </c>
       <c r="R37" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>12.894497704204486</v>
       </c>
       <c r="S37" s="2"/>
       <c r="T37" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>19.963686241492105</v>
       </c>
     </row>
@@ -12062,38 +13078,38 @@
         <v>219.91148575128551</v>
       </c>
       <c r="C38" s="1">
+        <f t="shared" si="8"/>
+        <v>4.5472840883398673</v>
+      </c>
+      <c r="D38" s="2">
         <f t="shared" si="9"/>
-        <v>4.5472840883398673</v>
-      </c>
-      <c r="D38" s="2">
+        <v>1.7142857142857142</v>
+      </c>
+      <c r="E38" s="2">
         <f t="shared" si="10"/>
-        <v>1.7142857142857142</v>
-      </c>
-      <c r="E38" s="2">
-        <f t="shared" si="11"/>
         <v>586.43062867009462</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="12"/>
+        <f>IF(B38&gt;B$66,IF(B38&gt;B$12,B38,B$12-(B$12-B38)*k__),B$26)</f>
         <v>396.38366567515652</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>13.500000000000002</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>19.972602739726032</v>
       </c>
       <c r="R38" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>13.641852265019606</v>
       </c>
       <c r="S38" s="2"/>
       <c r="T38" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>20.18246636468654</v>
       </c>
     </row>
@@ -12106,38 +13122,38 @@
         <v>213.96793208233186</v>
       </c>
       <c r="C39" s="1">
+        <f t="shared" si="8"/>
+        <v>4.6735975352381969</v>
+      </c>
+      <c r="D39" s="2">
         <f t="shared" si="9"/>
-        <v>4.6735975352381969</v>
-      </c>
-      <c r="D39" s="2">
+        <v>1.6679536679536682</v>
+      </c>
+      <c r="E39" s="2">
         <f t="shared" si="10"/>
-        <v>1.6679536679536682</v>
-      </c>
-      <c r="E39" s="2">
-        <f t="shared" si="11"/>
         <v>555.16003999740155</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" si="12"/>
+        <f>IF(B39&gt;B$66,IF(B39&gt;B$12,B39,B$12-(B$12-B39)*k__),B$26)</f>
         <v>392.27454215094167</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14.260416666666668</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>20.181818181818183</v>
       </c>
       <c r="R39" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>14.410259066984443</v>
       </c>
       <c r="S39" s="2"/>
       <c r="T39" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>20.393880153766684</v>
       </c>
     </row>
@@ -12150,38 +13166,38 @@
         <v>208.33719702753368</v>
       </c>
       <c r="C40" s="1">
+        <f t="shared" si="8"/>
+        <v>4.7999109821365256</v>
+      </c>
+      <c r="D40" s="2">
         <f t="shared" si="9"/>
-        <v>4.7999109821365256</v>
-      </c>
-      <c r="D40" s="2">
+        <v>1.6240601503759402</v>
+      </c>
+      <c r="E40" s="2">
         <f t="shared" si="10"/>
-        <v>1.6240601503759402</v>
-      </c>
-      <c r="E40" s="2">
-        <f t="shared" si="11"/>
         <v>526.32555038534827</v>
       </c>
       <c r="G40" s="2">
-        <f t="shared" si="12"/>
+        <f>IF(B40&gt;B$66,IF(B40&gt;B$12,B40,B$12-(B$12-B40)*k__),B$26)</f>
         <v>388.38168828589602</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15.041666666666663</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>20.384105960264904</v>
       </c>
       <c r="R40" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>15.199718110099001</v>
       </c>
       <c r="S40" s="2"/>
       <c r="T40" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>20.598293486254768</v>
       </c>
     </row>
@@ -12194,38 +13210,38 @@
         <v>202.99521761657124</v>
       </c>
       <c r="C41" s="1">
+        <f t="shared" si="8"/>
+        <v>4.926224429034856</v>
+      </c>
+      <c r="D41" s="2">
         <f t="shared" si="9"/>
-        <v>4.926224429034856</v>
-      </c>
-      <c r="D41" s="2">
+        <v>1.5824175824175828</v>
+      </c>
+      <c r="E41" s="2">
         <f t="shared" si="10"/>
-        <v>1.5824175824175828</v>
-      </c>
-      <c r="E41" s="2">
-        <f t="shared" si="11"/>
         <v>499.68053567155994</v>
       </c>
       <c r="G41" s="2">
-        <f t="shared" si="12"/>
+        <f>IF(B41&gt;B$66,IF(B41&gt;B$12,B41,B$12-(B$12-B41)*k__),B$26)</f>
         <v>384.68846795239119</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15.84375</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>20.579804560260587</v>
       </c>
       <c r="R41" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>16.010229394363286</v>
       </c>
       <c r="S41" s="2"/>
       <c r="T41" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>20.796048404003827</v>
       </c>
     </row>
@@ -12238,38 +13254,38 @@
         <v>197.92033717615698</v>
       </c>
       <c r="C42" s="1">
+        <f t="shared" si="8"/>
+        <v>5.0525378759331856</v>
+      </c>
+      <c r="D42" s="2">
         <f t="shared" si="9"/>
-        <v>5.0525378759331856</v>
-      </c>
-      <c r="D42" s="2">
+        <v>1.5428571428571429</v>
+      </c>
+      <c r="E42" s="2">
         <f t="shared" si="10"/>
-        <v>1.5428571428571429</v>
-      </c>
-      <c r="E42" s="2">
-        <f t="shared" si="11"/>
         <v>475.00880922277679</v>
       </c>
       <c r="G42" s="2">
-        <f t="shared" si="12"/>
+        <f>IF(B42&gt;B$66,IF(B42&gt;B$12,B42,B$12-(B$12-B42)*k__),B$26)</f>
         <v>381.17990863556156</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>16.666666666666664</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>20.76923076923077</v>
       </c>
       <c r="R42" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>16.841792919777287</v>
       </c>
       <c r="S42" s="2"/>
       <c r="T42" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>20.987465023107085</v>
       </c>
     </row>
@@ -12282,38 +13298,38 @@
         <v>193.09301187917754</v>
       </c>
       <c r="C43" s="1">
+        <f t="shared" si="8"/>
+        <v>5.1788513228315152</v>
+      </c>
+      <c r="D43" s="2">
         <f t="shared" si="9"/>
-        <v>5.1788513228315152</v>
-      </c>
-      <c r="D43" s="2">
+        <v>1.5052264808362372</v>
+      </c>
+      <c r="E43" s="2">
         <f t="shared" si="10"/>
-        <v>1.5052264808362372</v>
-      </c>
-      <c r="E43" s="2">
-        <f t="shared" si="11"/>
         <v>452.12022293661079</v>
       </c>
       <c r="G43" s="2">
-        <f t="shared" si="12"/>
+        <f>IF(B43&gt;B$66,IF(B43&gt;B$12,B43,B$12-(B$12-B43)*k__),B$26)</f>
         <v>377.84249855369922</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>17.510416666666668</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>20.952681388012621</v>
       </c>
       <c r="R43" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>17.694408686341013</v>
       </c>
       <c r="S43" s="2"/>
       <c r="T43" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>21.172843263058819</v>
       </c>
     </row>
@@ -12326,38 +13342,38 @@
         <v>188.49555921538757</v>
       </c>
       <c r="C44" s="1">
+        <f t="shared" si="8"/>
+        <v>5.3051647697298447</v>
+      </c>
+      <c r="D44" s="2">
         <f t="shared" si="9"/>
-        <v>5.3051647697298447</v>
-      </c>
-      <c r="D44" s="2">
+        <v>1.4693877551020409</v>
+      </c>
+      <c r="E44" s="2">
         <f t="shared" si="10"/>
-        <v>1.4693877551020409</v>
-      </c>
-      <c r="E44" s="2">
-        <f t="shared" si="11"/>
         <v>430.84699249231437</v>
       </c>
       <c r="G44" s="2">
-        <f t="shared" si="12"/>
+        <f>IF(B44&gt;B$66,IF(B44&gt;B$12,B44,B$12-(B$12-B44)*k__),B$26)</f>
         <v>374.66401276144938</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>18.375000000000007</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>21.130434782608699</v>
       </c>
       <c r="R44" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>18.568076694054465</v>
       </c>
       <c r="S44" s="2"/>
       <c r="T44" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>21.352464414813294</v>
       </c>
     </row>
@@ -12370,38 +13386,38 @@
         <v>184.11194155921578</v>
       </c>
       <c r="C45" s="1">
+        <f t="shared" si="8"/>
+        <v>5.4314782166281743</v>
+      </c>
+      <c r="D45" s="2">
         <f t="shared" si="9"/>
-        <v>5.4314782166281743</v>
-      </c>
-      <c r="D45" s="2">
+        <v>1.4352159468438541</v>
+      </c>
+      <c r="E45" s="2">
         <f t="shared" si="10"/>
-        <v>1.4352159468438541</v>
-      </c>
-      <c r="E45" s="2">
-        <f t="shared" si="11"/>
         <v>411.04061371359796</v>
       </c>
       <c r="G45" s="2">
-        <f t="shared" si="12"/>
+        <f>IF(B45&gt;B$66,IF(B45&gt;B$12,B45,B$12-(B$12-B45)*k__),B$26)</f>
         <v>371.63336351767629</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>19.260416666666671</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>21.302752293577985</v>
       </c>
       <c r="R45" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>19.462796942917631</v>
       </c>
       <c r="S45" s="2"/>
       <c r="T45" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>21.526592564985062</v>
       </c>
     </row>
@@ -12414,38 +13430,38 @@
         <v>179.92757925105178</v>
       </c>
       <c r="C46" s="1">
+        <f t="shared" si="8"/>
+        <v>5.5577916635265039</v>
+      </c>
+      <c r="D46" s="2">
         <f t="shared" si="9"/>
-        <v>5.5577916635265039</v>
-      </c>
-      <c r="D46" s="2">
+        <v>1.4025974025974031</v>
+      </c>
+      <c r="E46" s="2">
         <f t="shared" si="10"/>
-        <v>1.4025974025974031</v>
-      </c>
-      <c r="E46" s="2">
-        <f t="shared" si="11"/>
         <v>392.56926382047658</v>
       </c>
       <c r="G46" s="2">
-        <f t="shared" si="12"/>
+        <f>IF(B46&gt;B$66,IF(B46&gt;B$12,B46,B$12-(B$12-B46)*k__),B$26)</f>
         <v>368.74047105771109</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20.166666666666668</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>21.46987951807229</v>
       </c>
       <c r="R46" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>20.378569432930522</v>
       </c>
       <c r="S46" s="2"/>
       <c r="T46" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>21.695475891356477</v>
       </c>
     </row>
@@ -12458,38 +13474,38 @@
         <v>175.92918860102841</v>
       </c>
       <c r="C47" s="1">
+        <f t="shared" si="8"/>
+        <v>5.6841051104248335</v>
+      </c>
+      <c r="D47" s="2">
         <f t="shared" si="9"/>
-        <v>5.6841051104248335</v>
-      </c>
-      <c r="D47" s="2">
+        <v>1.3714285714285714</v>
+      </c>
+      <c r="E47" s="2">
         <f t="shared" si="10"/>
-        <v>1.3714285714285714</v>
-      </c>
-      <c r="E47" s="2">
-        <f t="shared" si="11"/>
         <v>375.31560234886064</v>
       </c>
       <c r="G47" s="2">
-        <f t="shared" si="12"/>
+        <f>IF(B47&gt;B$66,IF(B47&gt;B$12,B47,B$12-(B$12-B47)*k__),B$26)</f>
         <v>365.97615159596648</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>21.09375</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>21.632047477744813</v>
       </c>
       <c r="R47" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>21.315394164093131</v>
       </c>
       <c r="S47" s="2"/>
       <c r="T47" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>21.859347843058121</v>
       </c>
     </row>
@@ -12502,38 +13518,38 @@
         <v>172.1046410227452</v>
       </c>
       <c r="C48" s="1">
+        <f t="shared" si="8"/>
+        <v>5.810418557323163</v>
+      </c>
+      <c r="D48" s="2">
         <f t="shared" si="9"/>
-        <v>5.810418557323163</v>
-      </c>
-      <c r="D48" s="2">
+        <v>1.3416149068322984</v>
+      </c>
+      <c r="E48" s="2">
         <f t="shared" si="10"/>
-        <v>1.3416149068322984</v>
-      </c>
-      <c r="E48" s="2">
-        <f t="shared" si="11"/>
         <v>359.17490300398998</v>
       </c>
       <c r="G48" s="2">
-        <f t="shared" si="12"/>
+        <f>IF(B48&gt;B$66,IF(B48&gt;B$12,B48,B$12-(B$12-B48)*k__),B$26)</f>
         <v>363.33201993690648</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>22.041666666666661</v>
       </c>
       <c r="J48" s="2"/>
       <c r="K48" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>21.789473684210531</v>
       </c>
       <c r="R48" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>22.273271136405462</v>
       </c>
       <c r="S48" s="2"/>
       <c r="T48" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>22.018428217224624</v>
       </c>
     </row>
@@ -12546,38 +13562,38 @@
         <v>168.44284014992081</v>
       </c>
       <c r="C49" s="1">
+        <f t="shared" si="8"/>
+        <v>5.9367320042214935</v>
+      </c>
+      <c r="D49" s="2">
         <f t="shared" si="9"/>
-        <v>5.9367320042214935</v>
-      </c>
-      <c r="D49" s="2">
+        <v>1.3130699088145896</v>
+      </c>
+      <c r="E49" s="2">
         <f t="shared" si="10"/>
-        <v>1.3130699088145896</v>
-      </c>
-      <c r="E49" s="2">
-        <f t="shared" si="11"/>
         <v>344.05346073175309</v>
       </c>
       <c r="G49" s="2">
-        <f t="shared" si="12"/>
+        <f>IF(B49&gt;B$66,IF(B49&gt;B$12,B49,B$12-(B$12-B49)*k__),B$26)</f>
         <v>360.8004045186575</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>23.010416666666671</v>
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>21.942363112391934</v>
       </c>
       <c r="R49" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>23.252200349867525</v>
       </c>
       <c r="S49" s="2"/>
       <c r="T49" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>22.17292414256789</v>
       </c>
     </row>
@@ -12590,38 +13606,38 @@
         <v>164.93361431346415</v>
       </c>
       <c r="C50" s="1">
+        <f t="shared" si="8"/>
+        <v>6.0630454511198222</v>
+      </c>
+      <c r="D50" s="2">
         <f t="shared" si="9"/>
-        <v>6.0630454511198222</v>
-      </c>
-      <c r="D50" s="2">
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="E50" s="2">
         <f t="shared" si="10"/>
-        <v>1.2857142857142858</v>
-      </c>
-      <c r="E50" s="2">
-        <f t="shared" si="11"/>
         <v>329.86722862692829</v>
       </c>
       <c r="G50" s="2">
-        <f t="shared" si="12"/>
+        <f>IF(B50&gt;B$66,IF(B50&gt;B$12,B50,B$12-(B$12-B50)*k__),B$26)</f>
         <v>358.374273076169</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>23.999999999999996</v>
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>22.09090909090909</v>
       </c>
       <c r="R50" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>24.252181804479296</v>
       </c>
       <c r="S50" s="2"/>
       <c r="T50" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>22.323030979122986</v>
       </c>
     </row>
@@ -12634,38 +13650,38 @@
         <v>161.56762218461793</v>
       </c>
       <c r="C51" s="1">
+        <f t="shared" si="8"/>
+        <v>6.1893588980181518</v>
+      </c>
+      <c r="D51" s="2">
         <f t="shared" si="9"/>
-        <v>6.1893588980181518</v>
-      </c>
-      <c r="D51" s="2">
+        <v>1.2594752186588924</v>
+      </c>
+      <c r="E51" s="2">
         <f t="shared" si="10"/>
-        <v>1.2594752186588924</v>
-      </c>
-      <c r="E51" s="2">
-        <f t="shared" si="11"/>
         <v>316.54064754537393</v>
       </c>
       <c r="G51" s="2">
-        <f t="shared" si="12"/>
+        <f>IF(B51&gt;B$66,IF(B51&gt;B$12,B51,B$12-(B$12-B51)*k__),B$26)</f>
         <v>356.04716740684319</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25.010416666666668</v>
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>22.235294117647062</v>
       </c>
       <c r="R51" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>25.273215500240791</v>
       </c>
       <c r="S51" s="2"/>
       <c r="T51" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>22.468933142385232</v>
       </c>
     </row>
@@ -12674,33 +13690,33 @@
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <f t="shared" ref="B52:B60" si="15">3.6/A52*wheelDiameter*PI()</f>
+        <f t="shared" ref="B52:B60" si="13">3.6/A52*wheelDiameter*PI()</f>
         <v>158.33626974092559</v>
       </c>
       <c r="C52" s="1">
+        <f t="shared" si="8"/>
+        <v>6.3156723449164813</v>
+      </c>
+      <c r="D52" s="2">
         <f t="shared" si="9"/>
-        <v>6.3156723449164813</v>
-      </c>
-      <c r="D52" s="2">
-        <f t="shared" si="10"/>
         <v>1.2342857142857147</v>
       </c>
       <c r="E52" s="2">
-        <f t="shared" ref="E52:E60" si="16">k_*B52^2</f>
+        <f t="shared" ref="E52:E60" si="14">k_*B52^2</f>
         <v>304.00563790257718</v>
       </c>
       <c r="G52" s="2">
-        <f t="shared" ref="G52:G60" si="17">IF(B52&gt;B$12,B52,B$12-(B$12-B52)*k__)</f>
+        <f>IF(B52&gt;B$66,IF(B52&gt;B$12,B52,B$12-(B$12-B52)*k__),B$26)</f>
         <v>353.81314596429041</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2">
-        <f t="shared" ref="I52:I60" si="18">3.6/E52*PI()*wheelDiameter</f>
+        <f t="shared" ref="I52:I60" si="15">3.6/E52*PI()*wheelDiameter</f>
         <v>26.041666666666661</v>
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2">
-        <f t="shared" ref="K52:K60" si="19">3.6/G52*PI()*wheelDiameter</f>
+        <f t="shared" ref="K52:K60" si="16">3.6/G52*PI()*wheelDiameter</f>
         <v>22.375690607734807</v>
       </c>
     </row>
@@ -12709,33 +13725,33 @@
         <v>51</v>
       </c>
       <c r="B53" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>155.23163700090743</v>
       </c>
       <c r="C53" s="1">
+        <f t="shared" si="8"/>
+        <v>6.4419857918148118</v>
+      </c>
+      <c r="D53" s="2">
         <f t="shared" si="9"/>
-        <v>6.4419857918148118</v>
-      </c>
-      <c r="D53" s="2">
-        <f t="shared" si="10"/>
         <v>1.2100840336134455</v>
       </c>
       <c r="E53" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>292.2007284722963</v>
       </c>
       <c r="G53" s="2">
-        <f t="shared" si="17"/>
+        <f>IF(B53&gt;B$66,IF(B53&gt;B$12,B53,B$12-(B$12-B53)*k__),B$26)</f>
         <v>351.66673320575939</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>27.093750000000004</v>
       </c>
       <c r="J53" s="2"/>
       <c r="K53" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>22.512261580381473</v>
       </c>
     </row>
@@ -12744,33 +13760,33 @@
         <v>52</v>
       </c>
       <c r="B54" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>152.24641321242845</v>
       </c>
       <c r="C54" s="1">
+        <f t="shared" si="8"/>
+        <v>6.5682992387131405</v>
+      </c>
+      <c r="D54" s="2">
         <f t="shared" si="9"/>
-        <v>6.5682992387131405</v>
-      </c>
-      <c r="D54" s="2">
-        <f t="shared" si="10"/>
         <v>1.186813186813187</v>
       </c>
       <c r="E54" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>281.07030131525255</v>
       </c>
       <c r="G54" s="2">
-        <f t="shared" si="17"/>
+        <f>IF(B54&gt;B$66,IF(B54&gt;B$12,B54,B$12-(B$12-B54)*k__),B$26)</f>
         <v>349.60287478409492</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>28.166666666666664</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>22.64516129032258</v>
       </c>
     </row>
@@ -12779,33 +13795,33 @@
         <v>53</v>
       </c>
       <c r="B55" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>149.37383937823168</v>
       </c>
       <c r="C55" s="1">
+        <f t="shared" si="8"/>
+        <v>6.69461268561147</v>
+      </c>
+      <c r="D55" s="2">
         <f t="shared" si="9"/>
-        <v>6.69461268561147</v>
-      </c>
-      <c r="D55" s="2">
-        <f t="shared" si="10"/>
         <v>1.1644204851752025</v>
       </c>
       <c r="E55" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>270.56393547755169</v>
       </c>
       <c r="G55" s="2">
-        <f t="shared" si="17"/>
+        <f>IF(B55&gt;B$66,IF(B55&gt;B$12,B55,B$12-(B$12-B55)*k__),B$26)</f>
         <v>347.6168978123045</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>29.260416666666668</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>22.774535809018573</v>
       </c>
     </row>
@@ -12814,33 +13830,33 @@
         <v>54</v>
       </c>
       <c r="B56" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>146.60765716752368</v>
       </c>
       <c r="C56" s="1">
+        <f t="shared" si="8"/>
+        <v>6.8209261325098005</v>
+      </c>
+      <c r="D56" s="2">
         <f t="shared" si="9"/>
-        <v>6.8209261325098005</v>
-      </c>
-      <c r="D56" s="2">
-        <f t="shared" si="10"/>
         <v>1.142857142857143</v>
       </c>
       <c r="E56" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>260.63583496448655</v>
       </c>
       <c r="G56" s="2">
-        <f t="shared" si="17"/>
+        <f>IF(B56&gt;B$66,IF(B56&gt;B$12,B56,B$12-(B$12-B56)*k__),B$26)</f>
         <v>345.70447554317309</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>30.375</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>22.900523560209425</v>
       </c>
     </row>
@@ -12849,33 +13865,33 @@
         <v>55</v>
       </c>
       <c r="B57" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>143.94206340084145</v>
       </c>
       <c r="C57" s="1">
+        <f t="shared" si="8"/>
+        <v>6.9472395794081292</v>
+      </c>
+      <c r="D57" s="2">
         <f t="shared" si="9"/>
-        <v>6.9472395794081292</v>
-      </c>
-      <c r="D57" s="2">
-        <f t="shared" si="10"/>
         <v>1.1220779220779225</v>
       </c>
       <c r="E57" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>251.24432884510512</v>
       </c>
       <c r="G57" s="2">
-        <f t="shared" si="17"/>
+        <f>IF(B57&gt;B$66,IF(B57&gt;B$12,B57,B$12-(B$12-B57)*k__),B$26)</f>
         <v>343.86159590201004</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>31.510416666666657</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>23.02325581395349</v>
       </c>
     </row>
@@ -12884,33 +13900,33 @@
         <v>56</v>
       </c>
       <c r="B58" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>141.37166941154072</v>
       </c>
       <c r="C58" s="1">
+        <f t="shared" si="8"/>
+        <v>7.0735530263064579</v>
+      </c>
+      <c r="D58" s="2">
         <f t="shared" si="9"/>
-        <v>7.0735530263064579</v>
-      </c>
-      <c r="D58" s="2">
-        <f t="shared" si="10"/>
         <v>1.1020408163265309</v>
       </c>
       <c r="E58" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>242.35143327692703</v>
       </c>
       <c r="G58" s="2">
-        <f t="shared" si="17"/>
+        <f>IF(B58&gt;B$66,IF(B58&gt;B$12,B58,B$12-(B$12-B58)*k__),B$26)</f>
         <v>342.08453339088862</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>32.66666666666665</v>
       </c>
       <c r="J58" s="2"/>
       <c r="K58" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>23.142857142857142</v>
       </c>
     </row>
@@ -12919,33 +13935,33 @@
         <v>57</v>
       </c>
       <c r="B59" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>138.89146468502244</v>
       </c>
       <c r="C59" s="1">
+        <f t="shared" si="8"/>
+        <v>7.1998664732047892</v>
+      </c>
+      <c r="D59" s="2">
         <f t="shared" si="9"/>
-        <v>7.1998664732047892</v>
-      </c>
-      <c r="D59" s="2">
-        <f t="shared" si="10"/>
         <v>1.0827067669172932</v>
       </c>
       <c r="E59" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>233.92246683793257</v>
       </c>
       <c r="G59" s="2">
-        <f t="shared" si="17"/>
+        <f>IF(B59&gt;B$66,IF(B59&gt;B$12,B59,B$12-(B$12-B59)*k__),B$26)</f>
         <v>340.36982395033272</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>33.843749999999993</v>
       </c>
       <c r="J59" s="2"/>
       <c r="K59" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>23.259445843828718</v>
       </c>
     </row>
@@ -12954,33 +13970,33 @@
         <v>58</v>
       </c>
       <c r="B60" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>136.4967842594186</v>
       </c>
       <c r="C60" s="1">
+        <f t="shared" si="8"/>
+        <v>7.3261799201031188</v>
+      </c>
+      <c r="D60" s="2">
         <f t="shared" si="9"/>
-        <v>7.3261799201031188</v>
-      </c>
-      <c r="D60" s="2">
-        <f t="shared" si="10"/>
         <v>1.0640394088669953</v>
       </c>
       <c r="E60" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>225.92571187765839</v>
       </c>
       <c r="G60" s="2">
-        <f t="shared" si="17"/>
+        <f>IF(B60&gt;B$66,IF(B60&gt;B$12,B60,B$12-(B$12-B60)*k__),B$26)</f>
         <v>338.71424242152023</v>
       </c>
       <c r="H60" s="2"/>
       <c r="I60" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>35.041666666666664</v>
       </c>
       <c r="J60" s="2"/>
       <c r="K60" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>23.373134328358212</v>
       </c>
     </row>
@@ -12989,33 +14005,33 @@
         <v>59</v>
       </c>
       <c r="B61" s="2">
-        <f t="shared" ref="B61:B65" si="20">3.6/A61*wheelDiameter*PI()</f>
+        <f t="shared" ref="B61:B65" si="17">3.6/A61*wheelDiameter*PI()</f>
         <v>134.18327944146236</v>
       </c>
       <c r="C61" s="1">
+        <f t="shared" si="8"/>
+        <v>7.4524933670014484</v>
+      </c>
+      <c r="D61" s="2">
         <f t="shared" si="9"/>
-        <v>7.4524933670014484</v>
-      </c>
-      <c r="D61" s="2">
-        <f t="shared" si="10"/>
         <v>1.0460048426150121</v>
       </c>
       <c r="E61" s="2">
-        <f t="shared" ref="E61:E65" si="21">k_*B61^2</f>
+        <f t="shared" ref="E61:E65" si="18">k_*B61^2</f>
         <v>218.33211570136251</v>
       </c>
       <c r="G61" s="2">
-        <f t="shared" ref="G61:G65" si="22">IF(B61&gt;B$12,B61,B$12-(B$12-B61)*k__)</f>
+        <f>IF(B61&gt;B$66,IF(B61&gt;B$12,B61,B$12-(B$12-B61)*k__),B$26)</f>
         <v>337.11478230046401</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="2">
-        <f t="shared" ref="I61:I65" si="23">3.6/E61*PI()*wheelDiameter</f>
+        <f t="shared" ref="I61:I65" si="19">3.6/E61*PI()*wheelDiameter</f>
         <v>36.260416666666664</v>
       </c>
       <c r="J61" s="2"/>
       <c r="K61" s="2">
-        <f t="shared" ref="K61:K65" si="24">3.6/G61*PI()*wheelDiameter</f>
+        <f t="shared" ref="K61:K65" si="20">3.6/G61*PI()*wheelDiameter</f>
         <v>23.484029484029488</v>
       </c>
     </row>
@@ -13024,33 +14040,33 @@
         <v>60</v>
       </c>
       <c r="B62" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>131.94689145077132</v>
       </c>
       <c r="C62" s="1">
+        <f t="shared" si="8"/>
+        <v>7.5788068138997779</v>
+      </c>
+      <c r="D62" s="2">
         <f t="shared" si="9"/>
-        <v>7.5788068138997779</v>
-      </c>
-      <c r="D62" s="2">
-        <f t="shared" si="10"/>
         <v>1.0285714285714287</v>
       </c>
       <c r="E62" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>211.1150263212341</v>
       </c>
       <c r="G62" s="2">
-        <f t="shared" si="22"/>
+        <f>IF(B62&gt;B$66,IF(B62&gt;B$12,B62,B$12-(B$12-B62)*k__),B$26)</f>
         <v>335.56863751677639</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>37.5</v>
       </c>
       <c r="J62" s="2"/>
       <c r="K62" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>23.592233009708739</v>
       </c>
     </row>
@@ -13059,33 +14075,33 @@
         <v>61</v>
       </c>
       <c r="B63" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>129.78382765649636</v>
       </c>
       <c r="C63" s="1">
+        <f t="shared" si="8"/>
+        <v>7.7051202607981084</v>
+      </c>
+      <c r="D63" s="2">
         <f t="shared" si="9"/>
-        <v>7.7051202607981084</v>
-      </c>
-      <c r="D63" s="2">
-        <f t="shared" si="10"/>
         <v>1.0117096018735363</v>
       </c>
       <c r="E63" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>204.2499582790762</v>
       </c>
       <c r="G63" s="2">
-        <f t="shared" si="22"/>
+        <f>IF(B63&gt;B$66,IF(B63&gt;B$12,B63,B$12-(B$12-B63)*k__),B$26)</f>
         <v>334.07318600468506</v>
       </c>
       <c r="H63" s="2"/>
       <c r="I63" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>38.760416666666679</v>
       </c>
       <c r="J63" s="2"/>
       <c r="K63" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>23.697841726618709</v>
       </c>
     </row>
@@ -13094,33 +14110,33 @@
         <v>62</v>
       </c>
       <c r="B64" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>127.69054011364966</v>
       </c>
       <c r="C64" s="1">
+        <f t="shared" si="8"/>
+        <v>7.8314337076964371</v>
+      </c>
+      <c r="D64" s="2">
         <f t="shared" si="9"/>
-        <v>7.8314337076964371</v>
-      </c>
-      <c r="D64" s="2">
-        <f t="shared" si="10"/>
         <v>0.99539170506912455</v>
       </c>
       <c r="E64" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>197.7143846921027</v>
       </c>
       <c r="G64" s="2">
-        <f t="shared" si="22"/>
+        <f>IF(B64&gt;B$66,IF(B64&gt;B$12,B64,B$12-(B$12-B64)*k__),B$26)</f>
         <v>332.62597486395151</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>40.041666666666671</v>
       </c>
       <c r="J64" s="2"/>
       <c r="K64" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>23.800947867298586</v>
       </c>
     </row>
@@ -13129,33 +14145,33 @@
         <v>63</v>
       </c>
       <c r="B65" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>125.66370614359172</v>
       </c>
       <c r="C65" s="1">
+        <f t="shared" si="8"/>
+        <v>7.9577471545947667</v>
+      </c>
+      <c r="D65" s="2">
         <f t="shared" si="9"/>
-        <v>7.9577471545947667</v>
-      </c>
-      <c r="D65" s="2">
-        <f t="shared" si="10"/>
         <v>0.97959183673469408</v>
       </c>
       <c r="E65" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>191.48755221880643</v>
       </c>
       <c r="G65" s="2">
-        <f t="shared" si="22"/>
+        <f>IF(B65&gt;B$66,IF(B65&gt;B$12,B65,B$12-(B$12-B65)*k__),B$26)</f>
         <v>331.22470693403494</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>41.34375</v>
       </c>
       <c r="J65" s="2"/>
       <c r="K65" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>23.901639344262296</v>
       </c>
     </row>
@@ -13164,33 +14180,33 @@
         <v>64</v>
       </c>
       <c r="B66" s="2">
-        <f t="shared" ref="B66:B75" si="25">3.6/A66*wheelDiameter*PI()</f>
+        <f t="shared" ref="B66:B75" si="21">3.6/A66*wheelDiameter*PI()</f>
         <v>123.70021073509811</v>
       </c>
       <c r="C66" s="1">
+        <f t="shared" si="8"/>
+        <v>8.0840606014930962</v>
+      </c>
+      <c r="D66" s="2">
         <f t="shared" si="9"/>
-        <v>8.0840606014930962</v>
-      </c>
-      <c r="D66" s="2">
-        <f t="shared" si="10"/>
         <v>0.96428571428571452</v>
       </c>
       <c r="E66" s="2">
-        <f t="shared" ref="E66:E75" si="26">k_*B66^2</f>
+        <f t="shared" ref="E66:E75" si="22">k_*B66^2</f>
         <v>185.55031610264717</v>
       </c>
       <c r="G66" s="2">
-        <f t="shared" ref="G66:G75" si="27">IF(B66&gt;B$12,B66,B$12-(B$12-B66)*k__)</f>
+        <f>IF(B66&gt;B$66,IF(B66&gt;B$12,B66,B$12-(B$12-B66)*k__),B$26)</f>
         <v>329.86722862692829</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="2">
-        <f t="shared" ref="I66:I75" si="28">3.6/E66*PI()*wheelDiameter</f>
+        <f t="shared" ref="I66:I75" si="23">3.6/E66*PI()*wheelDiameter</f>
         <v>42.666666666666664</v>
       </c>
       <c r="J66" s="2"/>
       <c r="K66" s="2">
-        <f t="shared" ref="K66:K75" si="29">3.6/G66*PI()*wheelDiameter</f>
+        <f t="shared" ref="K66:K75" si="24">3.6/G66*PI()*wheelDiameter</f>
         <v>23.999999999999996</v>
       </c>
     </row>
@@ -13199,34 +14215,34 @@
         <v>65</v>
       </c>
       <c r="B67" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>121.79713056994277</v>
       </c>
       <c r="C67" s="1">
+        <f t="shared" si="8"/>
+        <v>8.2103740483914258</v>
+      </c>
+      <c r="D67" s="2">
         <f t="shared" si="9"/>
-        <v>8.2103740483914258</v>
-      </c>
-      <c r="D67" s="2">
-        <f t="shared" si="10"/>
         <v>0.94945054945054963</v>
       </c>
       <c r="E67" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>179.88499284176166</v>
       </c>
       <c r="G67" s="2">
-        <f t="shared" si="27"/>
-        <v>328.55151888311713</v>
+        <f>IF(B67&gt;B$66,IF(B67&gt;B$12,B67,B$12-(B$12-B67)*k__),B$26)</f>
+        <v>329.86722862692829</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>44.010416666666657</v>
       </c>
       <c r="J67" s="2"/>
       <c r="K67" s="2">
-        <f t="shared" si="29"/>
-        <v>24.09610983981694</v>
+        <f t="shared" si="24"/>
+        <v>23.999999999999996</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
@@ -13234,34 +14250,34 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>119.9517195007012</v>
       </c>
       <c r="C68" s="1">
+        <f t="shared" si="8"/>
+        <v>8.3366874952897554</v>
+      </c>
+      <c r="D68" s="2">
         <f t="shared" si="9"/>
-        <v>8.3366874952897554</v>
-      </c>
-      <c r="D68" s="2">
-        <f t="shared" si="10"/>
         <v>0.93506493506493515</v>
       </c>
       <c r="E68" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>174.47522836465629</v>
       </c>
       <c r="G68" s="2">
-        <f t="shared" si="27"/>
-        <v>327.27567913154274</v>
+        <f>IF(B68&gt;B$66,IF(B68&gt;B$12,B68,B$12-(B$12-B68)*k__),B$26)</f>
+        <v>329.86722862692829</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>45.375</v>
       </c>
       <c r="J68" s="2"/>
       <c r="K68" s="2">
-        <f t="shared" si="29"/>
-        <v>24.190045248868781</v>
+        <f t="shared" si="24"/>
+        <v>23.999999999999996</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
@@ -13269,34 +14285,34 @@
         <v>67</v>
       </c>
       <c r="B69" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>118.16139532904893</v>
       </c>
       <c r="C69" s="1">
+        <f t="shared" si="8"/>
+        <v>8.4630009421880867</v>
+      </c>
+      <c r="D69" s="2">
         <f t="shared" si="9"/>
-        <v>8.4630009421880867</v>
-      </c>
-      <c r="D69" s="2">
-        <f t="shared" si="10"/>
         <v>0.92110874200426429</v>
       </c>
       <c r="E69" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>169.30587987445816</v>
       </c>
       <c r="G69" s="2">
-        <f t="shared" si="27"/>
-        <v>326.037924148672</v>
+        <f>IF(B69&gt;B$66,IF(B69&gt;B$12,B69,B$12-(B$12-B69)*k__),B$26)</f>
+        <v>329.86722862692829</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>46.760416666666671</v>
       </c>
       <c r="J69" s="2"/>
       <c r="K69" s="2">
-        <f t="shared" si="29"/>
-        <v>24.281879194630879</v>
+        <f t="shared" si="24"/>
+        <v>23.999999999999996</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -13304,34 +14320,34 @@
         <v>68</v>
       </c>
       <c r="B70" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>116.42372775068056</v>
       </c>
       <c r="C70" s="1">
+        <f t="shared" si="8"/>
+        <v>8.5893143890864163</v>
+      </c>
+      <c r="D70" s="2">
         <f t="shared" si="9"/>
-        <v>8.5893143890864163</v>
-      </c>
-      <c r="D70" s="2">
-        <f t="shared" si="10"/>
         <v>0.90756302521008403</v>
       </c>
       <c r="E70" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>164.36290976566664</v>
       </c>
       <c r="G70" s="2">
-        <f t="shared" si="27"/>
-        <v>324.83657372412102</v>
+        <f>IF(B70&gt;B$66,IF(B70&gt;B$12,B70,B$12-(B$12-B70)*k__),B$26)</f>
+        <v>329.86722862692829</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>48.166666666666671</v>
       </c>
       <c r="J70" s="2"/>
       <c r="K70" s="2">
-        <f t="shared" si="29"/>
-        <v>24.371681415929213</v>
+        <f t="shared" si="24"/>
+        <v>23.999999999999996</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
@@ -13339,34 +14355,34 @@
         <v>69</v>
       </c>
       <c r="B71" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>114.7364273484968</v>
       </c>
       <c r="C71" s="1">
+        <f t="shared" si="8"/>
+        <v>8.7156278359847441</v>
+      </c>
+      <c r="D71" s="2">
         <f t="shared" si="9"/>
-        <v>8.7156278359847441</v>
-      </c>
-      <c r="D71" s="2">
-        <f t="shared" si="10"/>
         <v>0.89440993788819889</v>
       </c>
       <c r="E71" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>159.63329022399557</v>
       </c>
       <c r="G71" s="2">
-        <f t="shared" si="27"/>
-        <v>323.67004505100635</v>
+        <f>IF(B71&gt;B$66,IF(B71&gt;B$12,B71,B$12-(B$12-B71)*k__),B$26)</f>
+        <v>329.86722862692829</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>49.593749999999986</v>
       </c>
       <c r="J71" s="2"/>
       <c r="K71" s="2">
-        <f t="shared" si="29"/>
-        <v>24.459518599562365</v>
+        <f t="shared" si="24"/>
+        <v>23.999999999999996</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
@@ -13374,34 +14390,34 @@
         <v>70</v>
       </c>
       <c r="B72" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>113.09733552923255</v>
       </c>
       <c r="C72" s="1">
+        <f t="shared" si="8"/>
+        <v>8.8419412828830737</v>
+      </c>
+      <c r="D72" s="2">
         <f t="shared" si="9"/>
-        <v>8.8419412828830737</v>
-      </c>
-      <c r="D72" s="2">
-        <f t="shared" si="10"/>
         <v>0.88163265306122474</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>155.10491729723321</v>
       </c>
       <c r="G72" s="2">
-        <f t="shared" si="27"/>
-        <v>322.53684576855204</v>
+        <f>IF(B72&gt;B$66,IF(B72&gt;B$12,B72,B$12-(B$12-B72)*k__),B$26)</f>
+        <v>329.86722862692829</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>51.041666666666671</v>
       </c>
       <c r="J72" s="2"/>
       <c r="K72" s="2">
-        <f t="shared" si="29"/>
-        <v>24.54545454545455</v>
+        <f t="shared" si="24"/>
+        <v>23.999999999999996</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
@@ -13409,34 +14425,34 @@
         <v>71</v>
       </c>
       <c r="B73" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>111.50441531051096</v>
       </c>
       <c r="C73" s="1">
+        <f t="shared" si="8"/>
+        <v>8.968254729781405</v>
+      </c>
+      <c r="D73" s="2">
         <f t="shared" si="9"/>
-        <v>8.968254729781405</v>
-      </c>
-      <c r="D73" s="2">
-        <f t="shared" si="10"/>
         <v>0.86921529175050305</v>
       </c>
       <c r="E73" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>150.76653337759228</v>
       </c>
       <c r="G73" s="2">
-        <f t="shared" si="27"/>
-        <v>321.43556759264573</v>
+        <f>IF(B73&gt;B$66,IF(B73&gt;B$12,B73,B$12-(B$12-B73)*k__),B$26)</f>
+        <v>329.86722862692829</v>
       </c>
       <c r="H73" s="2"/>
       <c r="I73" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>52.510416666666671</v>
       </c>
       <c r="J73" s="2"/>
       <c r="K73" s="2">
-        <f t="shared" si="29"/>
-        <v>24.629550321199151</v>
+        <f t="shared" si="24"/>
+        <v>23.999999999999996</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
@@ -13444,34 +14460,34 @@
         <v>72</v>
       </c>
       <c r="B74" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>109.95574287564276</v>
       </c>
       <c r="C74" s="1">
+        <f t="shared" si="8"/>
+        <v>9.0945681766797346</v>
+      </c>
+      <c r="D74" s="2">
         <f t="shared" si="9"/>
-        <v>9.0945681766797346</v>
-      </c>
-      <c r="D74" s="2">
-        <f t="shared" si="10"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="E74" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>146.60765716752366</v>
       </c>
       <c r="G74" s="2">
-        <f t="shared" si="27"/>
-        <v>320.36488047718132</v>
+        <f>IF(B74&gt;B$66,IF(B74&gt;B$12,B74,B$12-(B$12-B74)*k__),B$26)</f>
+        <v>329.86722862692829</v>
       </c>
       <c r="H74" s="2"/>
       <c r="I74" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>54.000000000000007</v>
       </c>
       <c r="J74" s="2"/>
       <c r="K74" s="2">
-        <f t="shared" si="29"/>
-        <v>24.711864406779664</v>
+        <f t="shared" si="24"/>
+        <v>23.999999999999996</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
@@ -13479,34 +14495,34 @@
         <v>73</v>
       </c>
       <c r="B75" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>108.44949982255176</v>
       </c>
       <c r="C75" s="1">
+        <f t="shared" si="8"/>
+        <v>9.2208816235780642</v>
+      </c>
+      <c r="D75" s="2">
         <f t="shared" si="9"/>
-        <v>9.2208816235780642</v>
-      </c>
-      <c r="D75" s="2">
-        <f t="shared" si="10"/>
         <v>0.84540117416829741</v>
       </c>
       <c r="E75" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>142.61852031458861</v>
       </c>
       <c r="G75" s="2">
-        <f t="shared" si="27"/>
-        <v>319.32352725529125</v>
+        <f>IF(B75&gt;B$66,IF(B75&gt;B$12,B75,B$12-(B$12-B75)*k__),B$26)</f>
+        <v>329.86722862692829</v>
       </c>
       <c r="H75" s="2"/>
       <c r="I75" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>55.510416666666664</v>
       </c>
       <c r="J75" s="2"/>
       <c r="K75" s="2">
-        <f t="shared" si="29"/>
-        <v>24.79245283018868</v>
+        <f t="shared" si="24"/>
+        <v>23.999999999999996</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
@@ -13514,34 +14530,34 @@
         <v>74</v>
       </c>
       <c r="B76" s="2">
-        <f t="shared" ref="B76:B82" si="30">3.6/A76*wheelDiameter*PI()</f>
+        <f t="shared" ref="B76:B82" si="25">3.6/A76*wheelDiameter*PI()</f>
         <v>106.98396604116593</v>
       </c>
       <c r="C76" s="1">
+        <f t="shared" si="8"/>
+        <v>9.3471950704763938</v>
+      </c>
+      <c r="D76" s="2">
         <f t="shared" si="9"/>
-        <v>9.3471950704763938</v>
-      </c>
-      <c r="D76" s="2">
-        <f t="shared" si="10"/>
         <v>0.83397683397683409</v>
       </c>
       <c r="E76" s="2">
-        <f t="shared" ref="E76:E82" si="31">k_*B76^2</f>
+        <f t="shared" ref="E76:E82" si="26">k_*B76^2</f>
         <v>138.79000999935039</v>
       </c>
       <c r="G76" s="2">
-        <f t="shared" ref="G76:G82" si="32">IF(B76&gt;B$12,B76,B$12-(B$12-B76)*k__)</f>
-        <v>318.31031871507389</v>
+        <f>IF(B76&gt;B$66,IF(B76&gt;B$12,B76,B$12-(B$12-B76)*k__),B$26)</f>
+        <v>329.86722862692829</v>
       </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2">
-        <f t="shared" ref="I76:I82" si="33">3.6/E76*PI()*wheelDiameter</f>
+        <f t="shared" ref="I76:I82" si="27">3.6/E76*PI()*wheelDiameter</f>
         <v>57.041666666666671</v>
       </c>
       <c r="J76" s="2"/>
       <c r="K76" s="2">
-        <f t="shared" ref="K76:K82" si="34">3.6/G76*PI()*wheelDiameter</f>
-        <v>24.871369294605817</v>
+        <f t="shared" ref="K76:K82" si="28">3.6/G76*PI()*wheelDiameter</f>
+        <v>23.999999999999996</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
@@ -13549,34 +14565,34 @@
         <v>75</v>
       </c>
       <c r="B77" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>105.55751316061705</v>
       </c>
       <c r="C77" s="1">
+        <f t="shared" si="8"/>
+        <v>9.4735085173747233</v>
+      </c>
+      <c r="D77" s="2">
         <f t="shared" si="9"/>
-        <v>9.4735085173747233</v>
-      </c>
-      <c r="D77" s="2">
-        <f t="shared" si="10"/>
         <v>0.82285714285714295</v>
       </c>
       <c r="E77" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>135.11361684558983</v>
       </c>
       <c r="G77" s="2">
-        <f t="shared" si="32"/>
-        <v>317.32412906926237</v>
+        <f>IF(B77&gt;B$66,IF(B77&gt;B$12,B77,B$12-(B$12-B77)*k__),B$26)</f>
+        <v>329.86722862692829</v>
       </c>
       <c r="H77" s="2"/>
       <c r="I77" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>58.593750000000007</v>
       </c>
       <c r="J77" s="2"/>
       <c r="K77" s="2">
-        <f t="shared" si="34"/>
-        <v>24.948665297741275</v>
+        <f t="shared" si="28"/>
+        <v>23.999999999999996</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
@@ -13584,34 +14600,34 @@
         <v>76</v>
       </c>
       <c r="B78" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>104.16859851376684</v>
       </c>
       <c r="C78" s="1">
+        <f t="shared" si="8"/>
+        <v>9.5998219642730511</v>
+      </c>
+      <c r="D78" s="2">
         <f t="shared" si="9"/>
-        <v>9.5998219642730511</v>
-      </c>
-      <c r="D78" s="2">
-        <f t="shared" si="10"/>
         <v>0.8120300751879701</v>
       </c>
       <c r="E78" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>131.58138759633707</v>
       </c>
       <c r="G78" s="2">
-        <f t="shared" si="32"/>
-        <v>316.36389178255104</v>
+        <f>IF(B78&gt;B$66,IF(B78&gt;B$12,B78,B$12-(B$12-B78)*k__),B$26)</f>
+        <v>329.86722862692829</v>
       </c>
       <c r="H78" s="2"/>
       <c r="I78" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>60.16666666666665</v>
       </c>
       <c r="J78" s="2"/>
       <c r="K78" s="2">
-        <f t="shared" si="34"/>
-        <v>25.024390243902442</v>
+        <f t="shared" si="28"/>
+        <v>23.999999999999996</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
@@ -13619,34 +14635,34 @@
         <v>77</v>
       </c>
       <c r="B79" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>102.81575957202959</v>
       </c>
       <c r="C79" s="1">
+        <f t="shared" si="8"/>
+        <v>9.7261354111713825</v>
+      </c>
+      <c r="D79" s="2">
         <f t="shared" si="9"/>
-        <v>9.7261354111713825</v>
-      </c>
-      <c r="D79" s="2">
-        <f t="shared" si="10"/>
         <v>0.80148423005565872</v>
       </c>
       <c r="E79" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>128.1858820638291</v>
       </c>
       <c r="G79" s="2">
-        <f t="shared" si="32"/>
-        <v>315.42859572406604</v>
+        <f>IF(B79&gt;B$66,IF(B79&gt;B$12,B79,B$12-(B$12-B79)*k__),B$26)</f>
+        <v>329.86722862692829</v>
       </c>
       <c r="H79" s="2"/>
       <c r="I79" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>61.760416666666664</v>
       </c>
       <c r="J79" s="2"/>
       <c r="K79" s="2">
-        <f t="shared" si="34"/>
-        <v>25.098591549295779</v>
+        <f t="shared" si="28"/>
+        <v>23.999999999999996</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
@@ -13654,34 +14670,34 @@
         <v>78</v>
       </c>
       <c r="B80" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>101.49760880828562</v>
       </c>
       <c r="C80" s="1">
+        <f t="shared" si="8"/>
+        <v>9.852448858069712</v>
+      </c>
+      <c r="D80" s="2">
         <f t="shared" si="9"/>
-        <v>9.852448858069712</v>
-      </c>
-      <c r="D80" s="2">
-        <f t="shared" si="10"/>
         <v>0.7912087912087914</v>
       </c>
       <c r="E80" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>124.92013391788998</v>
       </c>
       <c r="G80" s="2">
-        <f t="shared" si="32"/>
-        <v>314.51728161579859</v>
+        <f>IF(B80&gt;B$66,IF(B80&gt;B$12,B80,B$12-(B$12-B80)*k__),B$26)</f>
+        <v>329.86722862692829</v>
       </c>
       <c r="H80" s="2"/>
       <c r="I80" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>63.375</v>
       </c>
       <c r="J80" s="2"/>
       <c r="K80" s="2">
-        <f t="shared" si="34"/>
-        <v>25.171314741035864</v>
+        <f t="shared" si="28"/>
+        <v>23.999999999999996</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
@@ -13689,34 +14705,34 @@
         <v>79</v>
       </c>
       <c r="B81" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>100.21282894995289</v>
       </c>
       <c r="C81" s="1">
+        <f t="shared" si="8"/>
+        <v>9.9787623049680416</v>
+      </c>
+      <c r="D81" s="2">
         <f t="shared" si="9"/>
-        <v>9.9787623049680416</v>
-      </c>
-      <c r="D81" s="2">
-        <f t="shared" si="10"/>
         <v>0.78119349005424954</v>
       </c>
       <c r="E81" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>121.77761492652505</v>
       </c>
       <c r="G81" s="2">
-        <f t="shared" si="32"/>
-        <v>313.62903875077842</v>
+        <f>IF(B81&gt;B$66,IF(B81&gt;B$12,B81,B$12-(B$12-B81)*k__),B$26)</f>
+        <v>329.86722862692829</v>
       </c>
       <c r="H81" s="2"/>
       <c r="I81" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>65.010416666666671</v>
       </c>
       <c r="J81" s="2"/>
       <c r="K81" s="2">
-        <f t="shared" si="34"/>
-        <v>25.242603550295868</v>
+        <f t="shared" si="28"/>
+        <v>23.999999999999996</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
@@ -13724,38 +14740,241 @@
         <v>80</v>
       </c>
       <c r="B82" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>98.960168588078488</v>
       </c>
       <c r="C82" s="1">
+        <f t="shared" si="8"/>
+        <v>10.105075751866371</v>
+      </c>
+      <c r="D82" s="2">
         <f t="shared" si="9"/>
-        <v>10.105075751866371</v>
-      </c>
-      <c r="D82" s="2">
-        <f t="shared" si="10"/>
         <v>0.77142857142857146</v>
       </c>
       <c r="E82" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>118.7522023056942</v>
       </c>
       <c r="G82" s="2">
-        <f t="shared" si="32"/>
-        <v>312.76300195738378</v>
+        <f>IF(B82&gt;B$66,IF(B82&gt;B$12,B82,B$12-(B$12-B82)*k__),B$26)</f>
+        <v>329.86722862692829</v>
       </c>
       <c r="H82" s="2"/>
       <c r="I82" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>66.666666666666657</v>
       </c>
       <c r="J82" s="2"/>
       <c r="K82" s="2">
-        <f t="shared" si="34"/>
-        <v>25.312500000000007</v>
+        <f t="shared" si="28"/>
+        <v>23.999999999999996</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>1000</v>
+      </c>
+      <c r="B83" s="2">
+        <f t="shared" ref="B83" si="29">3.6/A83*wheelDiameter*PI()</f>
+        <v>7.9168134870462783</v>
+      </c>
+      <c r="C83" s="1">
+        <f t="shared" si="8"/>
+        <v>126.31344689832964</v>
+      </c>
+      <c r="D83" s="2">
+        <f t="shared" si="9"/>
+        <v>6.1714285714285715E-2</v>
+      </c>
+      <c r="E83" s="2">
+        <f t="shared" ref="E83" si="30">k_*B83^2</f>
+        <v>0.76001409475644266</v>
+      </c>
+      <c r="G83" s="2">
+        <f>IF(B83&gt;B$66,IF(B83&gt;B$12,B83,B$12-(B$12-B83)*k__),B$26)</f>
+        <v>329.86722862692829</v>
+      </c>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2">
+        <f t="shared" ref="I83" si="31">3.6/E83*PI()*wheelDiameter</f>
+        <v>10416.666666666666</v>
+      </c>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2">
+        <f t="shared" ref="K83" si="32">3.6/G83*PI()*wheelDiameter</f>
+        <v>23.999999999999996</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C93C64-5BD1-4C1F-9B97-544B1F67BE95}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1">
+        <f>4*PI()*0.0000001</f>
+        <v>1.2566370614359173E-6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <f>mu0*ur*nTurns*Imax/coilLength*1000</f>
+        <v>8.2938046054770549</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11">
+        <f>nTurns^2*ur*mu0*(PI()*coilDiameter)^2/4/1000000/coilLength*1000</f>
+        <v>0.54695072064048889</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3729EEA4-2E0D-4F27-A3F1-64AC9F07D45A}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>620</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4">
+        <v>250</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <f>battery_capacity/motor_power*average_speed</f>
+        <v>86.8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>